--- a/data/pca/factorExposure/factorExposure_2012-09-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-13.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002049312870256764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001897714113364033</v>
+      </c>
+      <c r="C2">
+        <v>0.02885800656328829</v>
+      </c>
+      <c r="D2">
+        <v>-0.003789514440475956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003687621192355131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006824175361213982</v>
+      </c>
+      <c r="C4">
+        <v>0.08247776142200806</v>
+      </c>
+      <c r="D4">
+        <v>-0.06976797577548872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.004782201117479344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01479618217665486</v>
+      </c>
+      <c r="C6">
+        <v>0.1169303331706583</v>
+      </c>
+      <c r="D6">
+        <v>-0.02151218087634114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001446349954752551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005046638116000686</v>
+      </c>
+      <c r="C7">
+        <v>0.05885207943135456</v>
+      </c>
+      <c r="D7">
+        <v>-0.03392000383188189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001286976394505057</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006131971812172979</v>
+      </c>
+      <c r="C8">
+        <v>0.03549854975115687</v>
+      </c>
+      <c r="D8">
+        <v>-0.04095837403035114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.001139429065608794</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005364803952541751</v>
+      </c>
+      <c r="C9">
+        <v>0.07057557863165057</v>
+      </c>
+      <c r="D9">
+        <v>-0.07553696042090004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002705491863948129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.004290437244094334</v>
+      </c>
+      <c r="C10">
+        <v>0.05311407265371801</v>
+      </c>
+      <c r="D10">
+        <v>0.1868810266919696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001489156530690345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005750640471368642</v>
+      </c>
+      <c r="C11">
+        <v>0.07921185212774236</v>
+      </c>
+      <c r="D11">
+        <v>-0.06618084615710892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0007703696868358293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004531220033211465</v>
+      </c>
+      <c r="C12">
+        <v>0.06469856346918948</v>
+      </c>
+      <c r="D12">
+        <v>-0.05167777005475177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001872587190325536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.00866622408779251</v>
+      </c>
+      <c r="C13">
+        <v>0.06902190149813509</v>
+      </c>
+      <c r="D13">
+        <v>-0.06082168796647298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001722139311143833</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008533521226121667</v>
+      </c>
+      <c r="C14">
+        <v>0.04221863938095935</v>
+      </c>
+      <c r="D14">
+        <v>-0.01313721835773758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001737778566008643</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006009123291509235</v>
+      </c>
+      <c r="C15">
+        <v>0.03997998660757442</v>
+      </c>
+      <c r="D15">
+        <v>-0.02964423424245625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.000228689078080645</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005158240132505232</v>
+      </c>
+      <c r="C16">
+        <v>0.06382764321610161</v>
+      </c>
+      <c r="D16">
+        <v>-0.05806931653188103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002553783999366035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.00882322401348286</v>
+      </c>
+      <c r="C20">
+        <v>0.06309970819712052</v>
+      </c>
+      <c r="D20">
+        <v>-0.05293250430293173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005661685185344442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009279679560364748</v>
+      </c>
+      <c r="C21">
+        <v>0.01919704919217444</v>
+      </c>
+      <c r="D21">
+        <v>-0.04204584583883514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01907674862741328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006663207379099752</v>
+      </c>
+      <c r="C22">
+        <v>0.08749282970420964</v>
+      </c>
+      <c r="D22">
+        <v>-0.1230676805101612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01874947799853401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006357437654195796</v>
+      </c>
+      <c r="C23">
+        <v>0.08786876574940833</v>
+      </c>
+      <c r="D23">
+        <v>-0.1241951074686891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001985061512775948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005664011170902955</v>
+      </c>
+      <c r="C24">
+        <v>0.07603757125967113</v>
+      </c>
+      <c r="D24">
+        <v>-0.0685133032997602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003402369616706636</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003266006258008186</v>
+      </c>
+      <c r="C25">
+        <v>0.07756606548636676</v>
+      </c>
+      <c r="D25">
+        <v>-0.06786761982202547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00219893469401495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003565170136783851</v>
+      </c>
+      <c r="C26">
+        <v>0.03820336448774975</v>
+      </c>
+      <c r="D26">
+        <v>-0.02503484190776731</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005627891642807972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.00163953372241016</v>
+      </c>
+      <c r="C28">
+        <v>0.104860503046482</v>
+      </c>
+      <c r="D28">
+        <v>0.3241965062683602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0006397387285229439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002750370927551789</v>
+      </c>
+      <c r="C29">
+        <v>0.04752254974259898</v>
+      </c>
+      <c r="D29">
+        <v>-0.01180077117081401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003370485648992102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00942232565048364</v>
+      </c>
+      <c r="C30">
+        <v>0.1406972218726442</v>
+      </c>
+      <c r="D30">
+        <v>-0.1133082165272343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002145304766857922</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006354986333696506</v>
+      </c>
+      <c r="C31">
+        <v>0.04309915918668314</v>
+      </c>
+      <c r="D31">
+        <v>-0.03303395047681638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0004749054604266986</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003743830949892449</v>
+      </c>
+      <c r="C32">
+        <v>0.03957862261856614</v>
+      </c>
+      <c r="D32">
+        <v>-0.02221035065046776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0001456500441306632</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.00906290388171167</v>
+      </c>
+      <c r="C33">
+        <v>0.08857845526965365</v>
+      </c>
+      <c r="D33">
+        <v>-0.06619082059915501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001884180338278384</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004298542906337139</v>
+      </c>
+      <c r="C34">
+        <v>0.05742517605683556</v>
+      </c>
+      <c r="D34">
+        <v>-0.05921995082433423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001863871450880161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005260692920851301</v>
+      </c>
+      <c r="C35">
+        <v>0.04041090928915841</v>
+      </c>
+      <c r="D35">
+        <v>-0.01971831930690392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004853366812139028</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001429812892602485</v>
+      </c>
+      <c r="C36">
+        <v>0.02424046497025253</v>
+      </c>
+      <c r="D36">
+        <v>-0.02646529079506336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.003393280797878145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009225863499540094</v>
+      </c>
+      <c r="C38">
+        <v>0.04001654334929964</v>
+      </c>
+      <c r="D38">
+        <v>-0.01253699589210298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01123048845224273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001649733449202749</v>
+      </c>
+      <c r="C39">
+        <v>0.1108377584538439</v>
+      </c>
+      <c r="D39">
+        <v>-0.07985328686329445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003321954363148498</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003621406761455999</v>
+      </c>
+      <c r="C40">
+        <v>0.08977405570837366</v>
+      </c>
+      <c r="D40">
+        <v>-0.01868662997392831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.001833923668308728</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007195329483684629</v>
+      </c>
+      <c r="C41">
+        <v>0.0394945298499184</v>
+      </c>
+      <c r="D41">
+        <v>-0.04072582664329221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001676433706870525</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003675745224846851</v>
+      </c>
+      <c r="C43">
+        <v>0.05283652396804579</v>
+      </c>
+      <c r="D43">
+        <v>-0.02947033580314614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.006467062822927293</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.00264698246581322</v>
+      </c>
+      <c r="C44">
+        <v>0.1027195807535935</v>
+      </c>
+      <c r="D44">
+        <v>-0.0697154704169413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.00128240254942044</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.00162113242210442</v>
+      </c>
+      <c r="C46">
+        <v>0.0325997570106776</v>
+      </c>
+      <c r="D46">
+        <v>-0.03493465579920833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0007076637934717777</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002296680975837653</v>
+      </c>
+      <c r="C47">
+        <v>0.03476692709763714</v>
+      </c>
+      <c r="D47">
+        <v>-0.02444928895991225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00385408917879585</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006994029043065456</v>
+      </c>
+      <c r="C48">
+        <v>0.03099024458056299</v>
+      </c>
+      <c r="D48">
+        <v>-0.03599070555727905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.003549384240406551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01695704740676711</v>
+      </c>
+      <c r="C49">
+        <v>0.1883417722416346</v>
+      </c>
+      <c r="D49">
+        <v>-0.005294276386158397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006362149373022378</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003809879251751577</v>
+      </c>
+      <c r="C50">
+        <v>0.04256203945118852</v>
+      </c>
+      <c r="D50">
+        <v>-0.04059614304127013</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0005900142577880066</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004276547910653289</v>
+      </c>
+      <c r="C51">
+        <v>0.02675894164607656</v>
+      </c>
+      <c r="D51">
+        <v>-0.02121179360928448</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.007408914954368217</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02168990821949525</v>
+      </c>
+      <c r="C53">
+        <v>0.1715271520519293</v>
+      </c>
+      <c r="D53">
+        <v>-0.02171697546068173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004791654806253506</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009534360397172578</v>
+      </c>
+      <c r="C54">
+        <v>0.05577421942321398</v>
+      </c>
+      <c r="D54">
+        <v>-0.0421287231793584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001238572422512447</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009860062672269927</v>
+      </c>
+      <c r="C55">
+        <v>0.1079579669962905</v>
+      </c>
+      <c r="D55">
+        <v>-0.03766529987902702</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.007291268514977499</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02060596964170933</v>
+      </c>
+      <c r="C56">
+        <v>0.1749370496724605</v>
+      </c>
+      <c r="D56">
+        <v>-0.01488926754133487</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003308905487256871</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01925129066821055</v>
+      </c>
+      <c r="C58">
+        <v>0.1048845775987582</v>
+      </c>
+      <c r="D58">
+        <v>-0.06830077920186887</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.001114925600250098</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.0100277009169419</v>
+      </c>
+      <c r="C59">
+        <v>0.1693978887083797</v>
+      </c>
+      <c r="D59">
+        <v>0.343220655837055</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005103135632393676</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02464838605902828</v>
+      </c>
+      <c r="C60">
+        <v>0.2262705167606728</v>
+      </c>
+      <c r="D60">
+        <v>-0.01755408890890638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.0103360069093779</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001829804519103385</v>
+      </c>
+      <c r="C61">
+        <v>0.0933349030810246</v>
+      </c>
+      <c r="D61">
+        <v>-0.05869244142485411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1476247587729106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1503972026924487</v>
+      </c>
+      <c r="C62">
+        <v>0.09923013342362241</v>
+      </c>
+      <c r="D62">
+        <v>-0.01865694036684651</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001429646945007359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006697956262892877</v>
+      </c>
+      <c r="C63">
+        <v>0.05286164844152533</v>
+      </c>
+      <c r="D63">
+        <v>-0.03529446181103591</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.008538588665246304</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.0164762081141196</v>
+      </c>
+      <c r="C64">
+        <v>0.1050787941428129</v>
+      </c>
+      <c r="D64">
+        <v>-0.05670084907034424</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.007222109498255768</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01761412242065461</v>
+      </c>
+      <c r="C65">
+        <v>0.1208152938080319</v>
+      </c>
+      <c r="D65">
+        <v>-0.03041912654603647</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001976733228410237</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01303436215388461</v>
+      </c>
+      <c r="C66">
+        <v>0.159175943875386</v>
+      </c>
+      <c r="D66">
+        <v>-0.1102418800986611</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006458384198422729</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01562233365264553</v>
+      </c>
+      <c r="C67">
+        <v>0.072603019363892</v>
+      </c>
+      <c r="D67">
+        <v>-0.0223041879237298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.003570584400395555</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0008262694517838439</v>
+      </c>
+      <c r="C68">
+        <v>0.08715604244864876</v>
+      </c>
+      <c r="D68">
+        <v>0.257664325980771</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0004091023280490477</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006495412000019843</v>
+      </c>
+      <c r="C69">
+        <v>0.05234675918510906</v>
+      </c>
+      <c r="D69">
+        <v>-0.03902638864466771</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001148278844344612</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002430397030238133</v>
+      </c>
+      <c r="C70">
+        <v>0.007511140730304526</v>
+      </c>
+      <c r="D70">
+        <v>-0.0004002044136370494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001894514488305079</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005528413910033004</v>
+      </c>
+      <c r="C71">
+        <v>0.09148791301605352</v>
+      </c>
+      <c r="D71">
+        <v>0.3024079907175401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.00282104881629538</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01721129229878692</v>
+      </c>
+      <c r="C72">
+        <v>0.1573205398366219</v>
+      </c>
+      <c r="D72">
+        <v>-0.009584554339217519</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.007143938270770365</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03117787837610711</v>
+      </c>
+      <c r="C73">
+        <v>0.2819687364916187</v>
+      </c>
+      <c r="D73">
+        <v>-0.05079417494976245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005690553174628207</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001981782866220702</v>
+      </c>
+      <c r="C74">
+        <v>0.1020169525226375</v>
+      </c>
+      <c r="D74">
+        <v>-0.03476371557969357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.001462633360229195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01100950624143848</v>
+      </c>
+      <c r="C75">
+        <v>0.1209867743790773</v>
+      </c>
+      <c r="D75">
+        <v>-0.02929977137185201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01074747718016661</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02251226355892444</v>
+      </c>
+      <c r="C76">
+        <v>0.146727448025759</v>
+      </c>
+      <c r="D76">
+        <v>-0.05788003473987322</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.004096444081531523</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02062478049630784</v>
+      </c>
+      <c r="C77">
+        <v>0.113476991493001</v>
+      </c>
+      <c r="D77">
+        <v>-0.05701256363439964</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005435699674499897</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.0146094396322116</v>
+      </c>
+      <c r="C78">
+        <v>0.09751766461769221</v>
+      </c>
+      <c r="D78">
+        <v>-0.08090042963523161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02630287388330944</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03861465087757436</v>
+      </c>
+      <c r="C79">
+        <v>0.1555653817916727</v>
+      </c>
+      <c r="D79">
+        <v>-0.03464072198342676</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006345936979640389</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009586053693779246</v>
+      </c>
+      <c r="C80">
+        <v>0.03951353260345512</v>
+      </c>
+      <c r="D80">
+        <v>-0.03146425468118293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.00439626120423982</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01586861644778325</v>
+      </c>
+      <c r="C81">
+        <v>0.1292117182972671</v>
+      </c>
+      <c r="D81">
+        <v>-0.04003240293987631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006885632873600384</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01951193695817576</v>
+      </c>
+      <c r="C82">
+        <v>0.1377917090361888</v>
+      </c>
+      <c r="D82">
+        <v>-0.03925335042934656</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003853990877150322</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01206860779183388</v>
+      </c>
+      <c r="C83">
+        <v>0.06348970567077261</v>
+      </c>
+      <c r="D83">
+        <v>-0.04630979774123509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.009825154961377329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01225867365461016</v>
+      </c>
+      <c r="C84">
+        <v>0.03807142821633703</v>
+      </c>
+      <c r="D84">
+        <v>0.00777387761930899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01790655824973223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.0290512350514999</v>
+      </c>
+      <c r="C85">
+        <v>0.1234708222993497</v>
+      </c>
+      <c r="D85">
+        <v>-0.04053316627263714</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003244005549291396</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003720387383525758</v>
+      </c>
+      <c r="C86">
+        <v>0.04929849679474909</v>
+      </c>
+      <c r="D86">
+        <v>-0.0292510764885646</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0001473308051585998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01084287424961227</v>
+      </c>
+      <c r="C87">
+        <v>0.1269266185601902</v>
+      </c>
+      <c r="D87">
+        <v>-0.07669215099179216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009255344263606746</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002999480405881734</v>
+      </c>
+      <c r="C88">
+        <v>0.06210442657470108</v>
+      </c>
+      <c r="D88">
+        <v>-0.03154514598623805</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.009404761316077351</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002433814573698341</v>
+      </c>
+      <c r="C89">
+        <v>0.1376546153597384</v>
+      </c>
+      <c r="D89">
+        <v>0.3135147724038451</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0006577856981803832</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006295937602040142</v>
+      </c>
+      <c r="C90">
+        <v>0.1198567153616589</v>
+      </c>
+      <c r="D90">
+        <v>0.3119281827266954</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002122412784348298</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01119788074554866</v>
+      </c>
+      <c r="C91">
+        <v>0.09931743656099064</v>
+      </c>
+      <c r="D91">
+        <v>-0.02873260975584585</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.004588362534416185</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0003801119471927659</v>
+      </c>
+      <c r="C92">
+        <v>0.1334758432788637</v>
+      </c>
+      <c r="D92">
+        <v>0.3248151638709341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-2.547865587749638e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004002824391967787</v>
+      </c>
+      <c r="C93">
+        <v>0.1056860341062139</v>
+      </c>
+      <c r="D93">
+        <v>0.2987338411918706</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.009831351813072238</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02224415633282977</v>
+      </c>
+      <c r="C94">
+        <v>0.1418425504951624</v>
+      </c>
+      <c r="D94">
+        <v>-0.05496242222872892</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006473643949577262</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01657101094491869</v>
+      </c>
+      <c r="C95">
+        <v>0.1211655595692772</v>
+      </c>
+      <c r="D95">
+        <v>-0.06638701835273737</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01625113833732497</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03675137310981685</v>
+      </c>
+      <c r="C97">
+        <v>0.2269146039799251</v>
+      </c>
+      <c r="D97">
+        <v>-0.001764258045709556</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01130089885152133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03853227390727831</v>
+      </c>
+      <c r="C98">
+        <v>0.259863634614167</v>
+      </c>
+      <c r="D98">
+        <v>-0.02877494135435701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9871063640693334</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9810968713855143</v>
+      </c>
+      <c r="C99">
+        <v>-0.1204186779345984</v>
+      </c>
+      <c r="D99">
+        <v>0.02410504145702706</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0005665235454556893</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002790110346331851</v>
+      </c>
+      <c r="C101">
+        <v>0.0476418232095386</v>
+      </c>
+      <c r="D101">
+        <v>-0.01215125024580374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
